--- a/data/px_curves.xlsx
+++ b/data/px_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Zizheng\Dailies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5524C45-85C2-45DA-A0C9-0460680A8567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A38A8B-B743-42ED-81E9-E6F7B791EC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58300B67-9301-408F-92BC-0C65391FA5C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="101">
   <si>
     <t>Instrument</t>
   </si>
@@ -337,6 +337,9 @@
   <si>
     <t>2025-11-01</t>
   </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +347,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###,###,###.##;[Red]\-###,###,###.##"/>
-    <numFmt numFmtId="168" formatCode="[$-14809]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14809]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -358,15 +361,18 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -405,7 +411,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDBD047-2C89-48C7-9161-72C7B7F2BBB1}">
   <dimension ref="A1:H1664"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A854" workbookViewId="0">
+      <selection activeCell="K864" sqref="K864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23455,124 +23461,316 @@
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A874" s="2"/>
-      <c r="B874" s="2"/>
-      <c r="C874" s="2"/>
-      <c r="D874" s="2"/>
-      <c r="E874" s="2"/>
-      <c r="F874" s="2"/>
-      <c r="G874" s="3"/>
-      <c r="H874" s="4"/>
+      <c r="A874" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G874" s="3">
+        <v>45658</v>
+      </c>
+      <c r="H874" s="4">
+        <v>844.67</v>
+      </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A875" s="2"/>
-      <c r="B875" s="2"/>
-      <c r="C875" s="2"/>
-      <c r="D875" s="2"/>
-      <c r="E875" s="2"/>
-      <c r="F875" s="2"/>
-      <c r="G875" s="3"/>
-      <c r="H875" s="4"/>
+      <c r="A875" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G875" s="3">
+        <v>45689</v>
+      </c>
+      <c r="H875" s="4">
+        <v>865.33</v>
+      </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A876" s="2"/>
-      <c r="B876" s="2"/>
-      <c r="C876" s="2"/>
-      <c r="D876" s="2"/>
-      <c r="E876" s="2"/>
-      <c r="F876" s="2"/>
-      <c r="G876" s="3"/>
-      <c r="H876" s="4"/>
+      <c r="A876" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G876" s="3">
+        <v>45717</v>
+      </c>
+      <c r="H876" s="4">
+        <v>896</v>
+      </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A877" s="2"/>
-      <c r="B877" s="2"/>
-      <c r="C877" s="2"/>
-      <c r="D877" s="2"/>
-      <c r="E877" s="2"/>
-      <c r="F877" s="2"/>
-      <c r="G877" s="3"/>
-      <c r="H877" s="4"/>
+      <c r="A877" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G877" s="3">
+        <v>45748</v>
+      </c>
+      <c r="H877" s="4">
+        <v>896.5</v>
+      </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A878" s="2"/>
-      <c r="B878" s="2"/>
-      <c r="C878" s="2"/>
-      <c r="D878" s="2"/>
-      <c r="E878" s="2"/>
-      <c r="F878" s="2"/>
-      <c r="G878" s="3"/>
-      <c r="H878" s="4"/>
+      <c r="A878" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F878" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G878" s="3">
+        <v>45778</v>
+      </c>
+      <c r="H878" s="4">
+        <v>897</v>
+      </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A879" s="2"/>
-      <c r="B879" s="2"/>
-      <c r="C879" s="2"/>
-      <c r="D879" s="2"/>
-      <c r="E879" s="2"/>
-      <c r="F879" s="2"/>
-      <c r="G879" s="3"/>
-      <c r="H879" s="4"/>
+      <c r="A879" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F879" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G879" s="3">
+        <v>45809</v>
+      </c>
+      <c r="H879" s="4">
+        <v>896</v>
+      </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A880" s="2"/>
-      <c r="B880" s="2"/>
-      <c r="C880" s="2"/>
-      <c r="D880" s="2"/>
-      <c r="E880" s="2"/>
-      <c r="F880" s="2"/>
-      <c r="G880" s="3"/>
-      <c r="H880" s="4"/>
+      <c r="A880" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F880" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G880" s="3">
+        <v>45839</v>
+      </c>
+      <c r="H880" s="4">
+        <v>895</v>
+      </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A881" s="2"/>
-      <c r="B881" s="2"/>
-      <c r="C881" s="2"/>
-      <c r="D881" s="2"/>
-      <c r="E881" s="2"/>
-      <c r="F881" s="2"/>
-      <c r="G881" s="3"/>
-      <c r="H881" s="4"/>
+      <c r="A881" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F881" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G881" s="3">
+        <v>45870</v>
+      </c>
+      <c r="H881" s="4">
+        <v>894</v>
+      </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A882" s="2"/>
-      <c r="B882" s="2"/>
-      <c r="C882" s="2"/>
-      <c r="D882" s="2"/>
-      <c r="E882" s="2"/>
-      <c r="F882" s="2"/>
-      <c r="G882" s="3"/>
-      <c r="H882" s="4"/>
+      <c r="A882" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F882" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G882" s="3">
+        <v>45901</v>
+      </c>
+      <c r="H882" s="4">
+        <v>894</v>
+      </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A883" s="2"/>
-      <c r="B883" s="2"/>
-      <c r="C883" s="2"/>
-      <c r="D883" s="2"/>
-      <c r="E883" s="2"/>
-      <c r="F883" s="2"/>
-      <c r="G883" s="3"/>
-      <c r="H883" s="4"/>
+      <c r="A883" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F883" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G883" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H883" s="4">
+        <v>894</v>
+      </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A884" s="2"/>
-      <c r="B884" s="2"/>
-      <c r="C884" s="2"/>
-      <c r="D884" s="2"/>
-      <c r="E884" s="2"/>
-      <c r="F884" s="2"/>
-      <c r="G884" s="3"/>
-      <c r="H884" s="4"/>
+      <c r="A884" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G884" s="3">
+        <v>45962</v>
+      </c>
+      <c r="H884" s="4">
+        <v>894</v>
+      </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A885" s="2"/>
-      <c r="B885" s="2"/>
-      <c r="C885" s="2"/>
-      <c r="D885" s="2"/>
-      <c r="E885" s="2"/>
-      <c r="F885" s="2"/>
-      <c r="G885" s="3"/>
-      <c r="H885" s="4"/>
+      <c r="A885" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F885" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G885" s="3">
+        <v>45992</v>
+      </c>
+      <c r="H885" s="4">
+        <v>894</v>
+      </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
